--- a/yahoofinance/VGLT_yahoofin_historical_data.xlsx
+++ b/yahoofinance/VGLT_yahoofin_historical_data.xlsx
@@ -489,7 +489,7 @@
         <v>62.700001</v>
       </c>
       <c r="F2" t="n">
-        <v>61.001137</v>
+        <v>61.001133</v>
       </c>
       <c r="G2" t="n">
         <v>1845000</v>
@@ -514,7 +514,7 @@
         <v>63.509998</v>
       </c>
       <c r="F3" t="n">
-        <v>61.789181</v>
+        <v>61.789188</v>
       </c>
       <c r="G3" t="n">
         <v>1138400</v>
@@ -539,7 +539,7 @@
         <v>63.720001</v>
       </c>
       <c r="F4" t="n">
-        <v>61.993496</v>
+        <v>61.993492</v>
       </c>
       <c r="G4" t="n">
         <v>1089200</v>
@@ -614,7 +614,7 @@
         <v>64.18000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>62.441036</v>
+        <v>62.441032</v>
       </c>
       <c r="G7" t="n">
         <v>972700</v>
@@ -639,7 +639,7 @@
         <v>65.120003</v>
       </c>
       <c r="F8" t="n">
-        <v>63.355568</v>
+        <v>63.35556</v>
       </c>
       <c r="G8" t="n">
         <v>1321300</v>
@@ -689,7 +689,7 @@
         <v>65.730003</v>
       </c>
       <c r="F10" t="n">
-        <v>63.949039</v>
+        <v>63.949036</v>
       </c>
       <c r="G10" t="n">
         <v>693600</v>
@@ -714,7 +714,7 @@
         <v>65.379997</v>
       </c>
       <c r="F11" t="n">
-        <v>63.608509</v>
+        <v>63.608517</v>
       </c>
       <c r="G11" t="n">
         <v>1378700</v>
@@ -739,7 +739,7 @@
         <v>66.860001</v>
       </c>
       <c r="F12" t="n">
-        <v>65.04840900000001</v>
+        <v>65.048424</v>
       </c>
       <c r="G12" t="n">
         <v>2230300</v>
@@ -789,7 +789,7 @@
         <v>65.5</v>
       </c>
       <c r="F14" t="n">
-        <v>63.725273</v>
+        <v>63.725269</v>
       </c>
       <c r="G14" t="n">
         <v>820500</v>
@@ -814,7 +814,7 @@
         <v>65.16999800000001</v>
       </c>
       <c r="F15" t="n">
-        <v>63.404205</v>
+        <v>63.404213</v>
       </c>
       <c r="G15" t="n">
         <v>2207900</v>
@@ -839,7 +839,7 @@
         <v>66.06999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>64.279816</v>
+        <v>64.27982299999999</v>
       </c>
       <c r="G16" t="n">
         <v>690100</v>
@@ -864,7 +864,7 @@
         <v>66.230003</v>
       </c>
       <c r="F17" t="n">
-        <v>64.435478</v>
+        <v>64.43549299999999</v>
       </c>
       <c r="G17" t="n">
         <v>649100</v>
@@ -889,7 +889,7 @@
         <v>65.93000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>64.14361599999999</v>
+        <v>64.14362300000001</v>
       </c>
       <c r="G18" t="n">
         <v>2658400</v>
@@ -914,7 +914,7 @@
         <v>65.75</v>
       </c>
       <c r="F19" t="n">
-        <v>63.968498</v>
+        <v>63.968487</v>
       </c>
       <c r="G19" t="n">
         <v>893500</v>
@@ -939,7 +939,7 @@
         <v>65.519997</v>
       </c>
       <c r="F20" t="n">
-        <v>63.744728</v>
+        <v>63.744724</v>
       </c>
       <c r="G20" t="n">
         <v>1643600</v>
@@ -964,7 +964,7 @@
         <v>66.019997</v>
       </c>
       <c r="F21" t="n">
-        <v>64.231178</v>
+        <v>64.231171</v>
       </c>
       <c r="G21" t="n">
         <v>703300</v>
@@ -1014,7 +1014,7 @@
         <v>66.69000200000001</v>
       </c>
       <c r="F23" t="n">
-        <v>65.04164900000001</v>
+        <v>65.041641</v>
       </c>
       <c r="G23" t="n">
         <v>975000</v>
@@ -1064,7 +1064,7 @@
         <v>65.220001</v>
       </c>
       <c r="F25" t="n">
-        <v>63.607975</v>
+        <v>63.607979</v>
       </c>
       <c r="G25" t="n">
         <v>3308100</v>
@@ -1089,7 +1089,7 @@
         <v>64.730003</v>
       </c>
       <c r="F26" t="n">
-        <v>63.130089</v>
+        <v>63.130096</v>
       </c>
       <c r="G26" t="n">
         <v>898400</v>
@@ -1114,7 +1114,7 @@
         <v>65.010002</v>
       </c>
       <c r="F27" t="n">
-        <v>63.40316</v>
+        <v>63.403168</v>
       </c>
       <c r="G27" t="n">
         <v>1554100</v>
@@ -1139,7 +1139,7 @@
         <v>64.44000200000001</v>
       </c>
       <c r="F28" t="n">
-        <v>62.847248</v>
+        <v>62.847256</v>
       </c>
       <c r="G28" t="n">
         <v>1009500</v>
@@ -1189,7 +1189,7 @@
         <v>64.279999</v>
       </c>
       <c r="F30" t="n">
-        <v>62.6912</v>
+        <v>62.691196</v>
       </c>
       <c r="G30" t="n">
         <v>767200</v>
@@ -1214,7 +1214,7 @@
         <v>64.099998</v>
       </c>
       <c r="F31" t="n">
-        <v>62.515648</v>
+        <v>62.515652</v>
       </c>
       <c r="G31" t="n">
         <v>757600</v>
@@ -1239,7 +1239,7 @@
         <v>63.580002</v>
       </c>
       <c r="F32" t="n">
-        <v>62.008514</v>
+        <v>62.008518</v>
       </c>
       <c r="G32" t="n">
         <v>744400</v>
@@ -1264,7 +1264,7 @@
         <v>62.779999</v>
       </c>
       <c r="F33" t="n">
-        <v>61.228287</v>
+        <v>61.228279</v>
       </c>
       <c r="G33" t="n">
         <v>1564700</v>
@@ -1314,7 +1314,7 @@
         <v>62.040001</v>
       </c>
       <c r="F35" t="n">
-        <v>60.506569</v>
+        <v>60.506573</v>
       </c>
       <c r="G35" t="n">
         <v>886700</v>
@@ -1339,7 +1339,7 @@
         <v>62.5</v>
       </c>
       <c r="F36" t="n">
-        <v>60.955204</v>
+        <v>60.9552</v>
       </c>
       <c r="G36" t="n">
         <v>3901100</v>
@@ -1364,7 +1364,7 @@
         <v>63.060001</v>
       </c>
       <c r="F37" t="n">
-        <v>61.501362</v>
+        <v>61.501358</v>
       </c>
       <c r="G37" t="n">
         <v>1158400</v>
@@ -1414,7 +1414,7 @@
         <v>62.470001</v>
       </c>
       <c r="F39" t="n">
-        <v>60.925945</v>
+        <v>60.925941</v>
       </c>
       <c r="G39" t="n">
         <v>608700</v>
@@ -1439,7 +1439,7 @@
         <v>62.740002</v>
       </c>
       <c r="F40" t="n">
-        <v>61.189266</v>
+        <v>61.18927</v>
       </c>
       <c r="G40" t="n">
         <v>799500</v>
@@ -1464,7 +1464,7 @@
         <v>61.84</v>
       </c>
       <c r="F41" t="n">
-        <v>60.457016</v>
+        <v>60.45702</v>
       </c>
       <c r="G41" t="n">
         <v>1085400</v>
@@ -1489,7 +1489,7 @@
         <v>61.349998</v>
       </c>
       <c r="F42" t="n">
-        <v>59.97797</v>
+        <v>59.977982</v>
       </c>
       <c r="G42" t="n">
         <v>1611500</v>
@@ -1539,7 +1539,7 @@
         <v>62.27</v>
       </c>
       <c r="F44" t="n">
-        <v>60.877403</v>
+        <v>60.877407</v>
       </c>
       <c r="G44" t="n">
         <v>600000</v>
@@ -1564,7 +1564,7 @@
         <v>62.599998</v>
       </c>
       <c r="F45" t="n">
-        <v>61.200027</v>
+        <v>61.20002</v>
       </c>
       <c r="G45" t="n">
         <v>748100</v>
@@ -1614,7 +1614,7 @@
         <v>62.869999</v>
       </c>
       <c r="F47" t="n">
-        <v>61.463993</v>
+        <v>61.463989</v>
       </c>
       <c r="G47" t="n">
         <v>1149500</v>
@@ -1639,7 +1639,7 @@
         <v>64.900002</v>
       </c>
       <c r="F48" t="n">
-        <v>63.448586</v>
+        <v>63.448582</v>
       </c>
       <c r="G48" t="n">
         <v>1384600</v>
@@ -1664,7 +1664,7 @@
         <v>65.239998</v>
       </c>
       <c r="F49" t="n">
-        <v>63.780979</v>
+        <v>63.780987</v>
       </c>
       <c r="G49" t="n">
         <v>1299600</v>
@@ -1689,7 +1689,7 @@
         <v>64.25</v>
       </c>
       <c r="F50" t="n">
-        <v>62.813122</v>
+        <v>62.813118</v>
       </c>
       <c r="G50" t="n">
         <v>1254200</v>
@@ -1764,7 +1764,7 @@
         <v>65.760002</v>
       </c>
       <c r="F53" t="n">
-        <v>64.28936</v>
+        <v>64.289368</v>
       </c>
       <c r="G53" t="n">
         <v>1263900</v>
@@ -1789,7 +1789,7 @@
         <v>65.260002</v>
       </c>
       <c r="F54" t="n">
-        <v>63.800533</v>
+        <v>63.800537</v>
       </c>
       <c r="G54" t="n">
         <v>849300</v>
@@ -1839,7 +1839,7 @@
         <v>65.5</v>
       </c>
       <c r="F56" t="n">
-        <v>64.035172</v>
+        <v>64.03516399999999</v>
       </c>
       <c r="G56" t="n">
         <v>964200</v>
@@ -1889,7 +1889,7 @@
         <v>65.849998</v>
       </c>
       <c r="F58" t="n">
-        <v>64.377335</v>
+        <v>64.377342</v>
       </c>
       <c r="G58" t="n">
         <v>891700</v>
@@ -1914,7 +1914,7 @@
         <v>64.480003</v>
       </c>
       <c r="F59" t="n">
-        <v>63.037975</v>
+        <v>63.037987</v>
       </c>
       <c r="G59" t="n">
         <v>943800</v>
@@ -1939,7 +1939,7 @@
         <v>64.55999799999999</v>
       </c>
       <c r="F60" t="n">
-        <v>63.116188</v>
+        <v>63.116199</v>
       </c>
       <c r="G60" t="n">
         <v>597500</v>
@@ -1964,7 +1964,7 @@
         <v>64.389999</v>
       </c>
       <c r="F61" t="n">
-        <v>62.949993</v>
+        <v>62.949989</v>
       </c>
       <c r="G61" t="n">
         <v>642800</v>
@@ -2039,7 +2039,7 @@
         <v>65.699997</v>
       </c>
       <c r="F64" t="n">
-        <v>64.394852</v>
+        <v>64.39484400000001</v>
       </c>
       <c r="G64" t="n">
         <v>1061300</v>
@@ -2089,7 +2089,7 @@
         <v>66.720001</v>
       </c>
       <c r="F66" t="n">
-        <v>65.394592</v>
+        <v>65.39458500000001</v>
       </c>
       <c r="G66" t="n">
         <v>1142500</v>
@@ -2139,7 +2139,7 @@
         <v>65.910004</v>
       </c>
       <c r="F68" t="n">
-        <v>64.600677</v>
+        <v>64.60069300000001</v>
       </c>
       <c r="G68" t="n">
         <v>1016900</v>
@@ -2214,7 +2214,7 @@
         <v>65.480003</v>
       </c>
       <c r="F71" t="n">
-        <v>64.179222</v>
+        <v>64.17923</v>
       </c>
       <c r="G71" t="n">
         <v>869100</v>
@@ -2239,7 +2239,7 @@
         <v>64.889999</v>
       </c>
       <c r="F72" t="n">
-        <v>63.600945</v>
+        <v>63.600952</v>
       </c>
       <c r="G72" t="n">
         <v>722600</v>
@@ -2264,7 +2264,7 @@
         <v>64.160004</v>
       </c>
       <c r="F73" t="n">
-        <v>62.885445</v>
+        <v>62.885448</v>
       </c>
       <c r="G73" t="n">
         <v>1434100</v>
@@ -2289,7 +2289,7 @@
         <v>64.410004</v>
       </c>
       <c r="F74" t="n">
-        <v>63.130486</v>
+        <v>63.130489</v>
       </c>
       <c r="G74" t="n">
         <v>1028100</v>
@@ -2314,7 +2314,7 @@
         <v>64.31999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>63.042267</v>
+        <v>63.042263</v>
       </c>
       <c r="G75" t="n">
         <v>744800</v>
@@ -2339,7 +2339,7 @@
         <v>64.81999999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>63.532333</v>
+        <v>63.532337</v>
       </c>
       <c r="G76" t="n">
         <v>1076800</v>
@@ -2364,7 +2364,7 @@
         <v>64.470001</v>
       </c>
       <c r="F77" t="n">
-        <v>63.189289</v>
+        <v>63.189285</v>
       </c>
       <c r="G77" t="n">
         <v>763600</v>
@@ -2439,7 +2439,7 @@
         <v>65.360001</v>
       </c>
       <c r="F80" t="n">
-        <v>64.0616</v>
+        <v>64.061607</v>
       </c>
       <c r="G80" t="n">
         <v>1321900</v>
@@ -2464,7 +2464,7 @@
         <v>64.75</v>
       </c>
       <c r="F81" t="n">
-        <v>63.463726</v>
+        <v>63.463722</v>
       </c>
       <c r="G81" t="n">
         <v>636500</v>
@@ -2514,7 +2514,7 @@
         <v>63.849998</v>
       </c>
       <c r="F83" t="n">
-        <v>62.736336</v>
+        <v>62.73634</v>
       </c>
       <c r="G83" t="n">
         <v>1955400</v>
@@ -2539,7 +2539,7 @@
         <v>65.269997</v>
       </c>
       <c r="F84" t="n">
-        <v>64.131569</v>
+        <v>64.13157699999999</v>
       </c>
       <c r="G84" t="n">
         <v>1335300</v>
@@ -2564,7 +2564,7 @@
         <v>65.68000000000001</v>
       </c>
       <c r="F85" t="n">
-        <v>64.534431</v>
+        <v>64.534424</v>
       </c>
       <c r="G85" t="n">
         <v>1228000</v>
@@ -2589,7 +2589,7 @@
         <v>65.160004</v>
       </c>
       <c r="F86" t="n">
-        <v>64.023499</v>
+        <v>64.02349100000001</v>
       </c>
       <c r="G86" t="n">
         <v>1471100</v>
@@ -2714,7 +2714,7 @@
         <v>65.06999999999999</v>
       </c>
       <c r="F91" t="n">
-        <v>63.93507</v>
+        <v>63.935062</v>
       </c>
       <c r="G91" t="n">
         <v>1455400</v>
@@ -2739,7 +2739,7 @@
         <v>64.589996</v>
       </c>
       <c r="F92" t="n">
-        <v>63.463428</v>
+        <v>63.463432</v>
       </c>
       <c r="G92" t="n">
         <v>819600</v>
@@ -2764,7 +2764,7 @@
         <v>63.950001</v>
       </c>
       <c r="F93" t="n">
-        <v>62.834602</v>
+        <v>62.834599</v>
       </c>
       <c r="G93" t="n">
         <v>1566900</v>
@@ -2864,7 +2864,7 @@
         <v>62.689999</v>
       </c>
       <c r="F97" t="n">
-        <v>61.596577</v>
+        <v>61.596573</v>
       </c>
       <c r="G97" t="n">
         <v>1291100</v>
@@ -2914,7 +2914,7 @@
         <v>62.59</v>
       </c>
       <c r="F99" t="n">
-        <v>61.498322</v>
+        <v>61.498318</v>
       </c>
       <c r="G99" t="n">
         <v>1003600</v>
@@ -2964,7 +2964,7 @@
         <v>62.119999</v>
       </c>
       <c r="F101" t="n">
-        <v>61.036514</v>
+        <v>61.036518</v>
       </c>
       <c r="G101" t="n">
         <v>1199600</v>
@@ -3039,7 +3039,7 @@
         <v>63.689999</v>
       </c>
       <c r="F104" t="n">
-        <v>62.579132</v>
+        <v>62.579136</v>
       </c>
       <c r="G104" t="n">
         <v>1532100</v>
@@ -3064,7 +3064,7 @@
         <v>63.75</v>
       </c>
       <c r="F105" t="n">
-        <v>62.804733</v>
+        <v>62.804737</v>
       </c>
       <c r="G105" t="n">
         <v>975800</v>
@@ -3089,7 +3089,7 @@
         <v>63.150002</v>
       </c>
       <c r="F106" t="n">
-        <v>62.213634</v>
+        <v>62.213638</v>
       </c>
       <c r="G106" t="n">
         <v>1046100</v>
@@ -3114,7 +3114,7 @@
         <v>63.060001</v>
       </c>
       <c r="F107" t="n">
-        <v>62.124969</v>
+        <v>62.124973</v>
       </c>
       <c r="G107" t="n">
         <v>642900</v>
@@ -3139,7 +3139,7 @@
         <v>63.330002</v>
       </c>
       <c r="F108" t="n">
-        <v>62.390968</v>
+        <v>62.390965</v>
       </c>
       <c r="G108" t="n">
         <v>862300</v>
@@ -3189,7 +3189,7 @@
         <v>63.150002</v>
       </c>
       <c r="F110" t="n">
-        <v>62.213634</v>
+        <v>62.213638</v>
       </c>
       <c r="G110" t="n">
         <v>915600</v>
@@ -3214,7 +3214,7 @@
         <v>63.099998</v>
       </c>
       <c r="F111" t="n">
-        <v>62.164375</v>
+        <v>62.164379</v>
       </c>
       <c r="G111" t="n">
         <v>753400</v>
@@ -3239,7 +3239,7 @@
         <v>63.220001</v>
       </c>
       <c r="F112" t="n">
-        <v>62.2826</v>
+        <v>62.282597</v>
       </c>
       <c r="G112" t="n">
         <v>1210000</v>
@@ -3264,7 +3264,7 @@
         <v>62.619999</v>
       </c>
       <c r="F113" t="n">
-        <v>61.691494</v>
+        <v>61.69149</v>
       </c>
       <c r="G113" t="n">
         <v>1677800</v>
@@ -3314,7 +3314,7 @@
         <v>63.610001</v>
       </c>
       <c r="F115" t="n">
-        <v>62.666817</v>
+        <v>62.666813</v>
       </c>
       <c r="G115" t="n">
         <v>2237300</v>
@@ -3364,7 +3364,7 @@
         <v>63.77</v>
       </c>
       <c r="F117" t="n">
-        <v>62.824444</v>
+        <v>62.824448</v>
       </c>
       <c r="G117" t="n">
         <v>1103600</v>
@@ -3389,7 +3389,7 @@
         <v>63.919998</v>
       </c>
       <c r="F118" t="n">
-        <v>62.972214</v>
+        <v>62.972218</v>
       </c>
       <c r="G118" t="n">
         <v>1364600</v>
@@ -3439,7 +3439,7 @@
         <v>63.77</v>
       </c>
       <c r="F120" t="n">
-        <v>62.824444</v>
+        <v>62.824448</v>
       </c>
       <c r="G120" t="n">
         <v>1044200</v>
@@ -3539,7 +3539,7 @@
         <v>62.889999</v>
       </c>
       <c r="F124" t="n">
-        <v>61.957493</v>
+        <v>61.957489</v>
       </c>
       <c r="G124" t="n">
         <v>3689200</v>
@@ -3564,7 +3564,7 @@
         <v>63.529999</v>
       </c>
       <c r="F125" t="n">
-        <v>62.587997</v>
+        <v>62.588001</v>
       </c>
       <c r="G125" t="n">
         <v>2320500</v>
@@ -3589,7 +3589,7 @@
         <v>63.02</v>
       </c>
       <c r="F126" t="n">
-        <v>62.247231</v>
+        <v>62.247234</v>
       </c>
       <c r="G126" t="n">
         <v>1202800</v>
@@ -3639,7 +3639,7 @@
         <v>61.580002</v>
       </c>
       <c r="F128" t="n">
-        <v>60.824886</v>
+        <v>60.82489</v>
       </c>
       <c r="G128" t="n">
         <v>4854600</v>
@@ -3714,7 +3714,7 @@
         <v>61.669998</v>
       </c>
       <c r="F131" t="n">
-        <v>60.91378</v>
+        <v>60.913784</v>
       </c>
       <c r="G131" t="n">
         <v>1546100</v>
@@ -3739,7 +3739,7 @@
         <v>62.380001</v>
       </c>
       <c r="F132" t="n">
-        <v>61.615082</v>
+        <v>61.615086</v>
       </c>
       <c r="G132" t="n">
         <v>2163600</v>
@@ -3764,7 +3764,7 @@
         <v>63</v>
       </c>
       <c r="F133" t="n">
-        <v>62.227478</v>
+        <v>62.227482</v>
       </c>
       <c r="G133" t="n">
         <v>1489500</v>
@@ -3814,7 +3814,7 @@
         <v>62.720001</v>
       </c>
       <c r="F135" t="n">
-        <v>61.950912</v>
+        <v>61.950916</v>
       </c>
       <c r="G135" t="n">
         <v>1663400</v>
@@ -3839,7 +3839,7 @@
         <v>62.98</v>
       </c>
       <c r="F136" t="n">
-        <v>62.207726</v>
+        <v>62.207722</v>
       </c>
       <c r="G136" t="n">
         <v>1397800</v>
@@ -3889,7 +3889,7 @@
         <v>62.860001</v>
       </c>
       <c r="F138" t="n">
-        <v>62.089191</v>
+        <v>62.089195</v>
       </c>
       <c r="G138" t="n">
         <v>3741300</v>
@@ -3939,7 +3939,7 @@
         <v>62.68</v>
       </c>
       <c r="F140" t="n">
-        <v>61.911404</v>
+        <v>61.9114</v>
       </c>
       <c r="G140" t="n">
         <v>1398500</v>
@@ -3964,7 +3964,7 @@
         <v>62.549999</v>
       </c>
       <c r="F141" t="n">
-        <v>61.782993</v>
+        <v>61.782997</v>
       </c>
       <c r="G141" t="n">
         <v>1267200</v>
@@ -4014,7 +4014,7 @@
         <v>61.5</v>
       </c>
       <c r="F143" t="n">
-        <v>60.745876</v>
+        <v>60.745872</v>
       </c>
       <c r="G143" t="n">
         <v>1996700</v>
@@ -4064,7 +4064,7 @@
         <v>61.950001</v>
       </c>
       <c r="F145" t="n">
-        <v>61.190357</v>
+        <v>61.190353</v>
       </c>
       <c r="G145" t="n">
         <v>1596300</v>
@@ -4114,7 +4114,7 @@
         <v>60.27</v>
       </c>
       <c r="F147" t="n">
-        <v>59.691868</v>
+        <v>59.691864</v>
       </c>
       <c r="G147" t="n">
         <v>2002200</v>
@@ -4139,7 +4139,7 @@
         <v>59.009998</v>
       </c>
       <c r="F148" t="n">
-        <v>58.443951</v>
+        <v>58.443954</v>
       </c>
       <c r="G148" t="n">
         <v>3247300</v>
@@ -4189,7 +4189,7 @@
         <v>59.5</v>
       </c>
       <c r="F150" t="n">
-        <v>58.929253</v>
+        <v>58.929256</v>
       </c>
       <c r="G150" t="n">
         <v>1909300</v>
@@ -4264,7 +4264,7 @@
         <v>59.549999</v>
       </c>
       <c r="F153" t="n">
-        <v>58.978775</v>
+        <v>58.978771</v>
       </c>
       <c r="G153" t="n">
         <v>1349300</v>
@@ -4289,7 +4289,7 @@
         <v>59.349998</v>
       </c>
       <c r="F154" t="n">
-        <v>58.780689</v>
+        <v>58.780693</v>
       </c>
       <c r="G154" t="n">
         <v>1570200</v>
@@ -4339,7 +4339,7 @@
         <v>58.93</v>
       </c>
       <c r="F156" t="n">
-        <v>58.364723</v>
+        <v>58.364719</v>
       </c>
       <c r="G156" t="n">
         <v>1309500</v>
@@ -4439,7 +4439,7 @@
         <v>57.709999</v>
       </c>
       <c r="F160" t="n">
-        <v>57.156422</v>
+        <v>57.156425</v>
       </c>
       <c r="G160" t="n">
         <v>3322600</v>
@@ -4614,7 +4614,7 @@
         <v>59.82</v>
       </c>
       <c r="F167" t="n">
-        <v>59.246185</v>
+        <v>59.246181</v>
       </c>
       <c r="G167" t="n">
         <v>1870900</v>
@@ -4639,7 +4639,7 @@
         <v>60.07</v>
       </c>
       <c r="F168" t="n">
-        <v>59.493782</v>
+        <v>59.493786</v>
       </c>
       <c r="G168" t="n">
         <v>1652400</v>
@@ -4664,7 +4664,7 @@
         <v>59</v>
       </c>
       <c r="F169" t="n">
-        <v>58.610649</v>
+        <v>58.610653</v>
       </c>
       <c r="G169" t="n">
         <v>1492900</v>
@@ -4789,7 +4789,7 @@
         <v>58.360001</v>
       </c>
       <c r="F174" t="n">
-        <v>57.974873</v>
+        <v>57.974876</v>
       </c>
       <c r="G174" t="n">
         <v>776600</v>
@@ -4814,7 +4814,7 @@
         <v>58.630001</v>
       </c>
       <c r="F175" t="n">
-        <v>58.243095</v>
+        <v>58.243092</v>
       </c>
       <c r="G175" t="n">
         <v>1067700</v>
@@ -4839,7 +4839,7 @@
         <v>58.66</v>
       </c>
       <c r="F176" t="n">
-        <v>58.272896</v>
+        <v>58.272892</v>
       </c>
       <c r="G176" t="n">
         <v>1004800</v>
@@ -4914,7 +4914,7 @@
         <v>58.240002</v>
       </c>
       <c r="F179" t="n">
-        <v>57.855671</v>
+        <v>57.855667</v>
       </c>
       <c r="G179" t="n">
         <v>858800</v>
@@ -4939,7 +4939,7 @@
         <v>57.880001</v>
       </c>
       <c r="F180" t="n">
-        <v>57.498047</v>
+        <v>57.498043</v>
       </c>
       <c r="G180" t="n">
         <v>1071800</v>
@@ -4964,7 +4964,7 @@
         <v>57.990002</v>
       </c>
       <c r="F181" t="n">
-        <v>57.607319</v>
+        <v>57.607315</v>
       </c>
       <c r="G181" t="n">
         <v>1575100</v>
@@ -5039,7 +5039,7 @@
         <v>55.82</v>
       </c>
       <c r="F184" t="n">
-        <v>55.451633</v>
+        <v>55.451637</v>
       </c>
       <c r="G184" t="n">
         <v>2158100</v>
@@ -5114,7 +5114,7 @@
         <v>55.470001</v>
       </c>
       <c r="F187" t="n">
-        <v>55.103947</v>
+        <v>55.103951</v>
       </c>
       <c r="G187" t="n">
         <v>2287400</v>
@@ -5867,7 +5867,7 @@
         <v>54.84</v>
       </c>
       <c r="G217" t="n">
-        <v>2805300</v>
+        <v>2805800</v>
       </c>
     </row>
     <row r="218">
@@ -5883,16 +5883,16 @@
         <v>55.369999</v>
       </c>
       <c r="D218" t="n">
-        <v>55.125</v>
+        <v>55</v>
       </c>
       <c r="E218" t="n">
-        <v>55.25</v>
+        <v>55.110001</v>
       </c>
       <c r="F218" t="n">
-        <v>55.25</v>
+        <v>55.110001</v>
       </c>
       <c r="G218" t="n">
-        <v>558308</v>
+        <v>1756400</v>
       </c>
     </row>
   </sheetData>

--- a/yahoofinance/VGLT_yahoofin_historical_data.xlsx
+++ b/yahoofinance/VGLT_yahoofin_historical_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G218"/>
+  <dimension ref="A1:G229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
         <v>62.700001</v>
       </c>
       <c r="F2" t="n">
-        <v>61.001133</v>
+        <v>61.001144</v>
       </c>
       <c r="G2" t="n">
         <v>1845000</v>
@@ -514,7 +514,7 @@
         <v>63.509998</v>
       </c>
       <c r="F3" t="n">
-        <v>61.789188</v>
+        <v>61.789177</v>
       </c>
       <c r="G3" t="n">
         <v>1138400</v>
@@ -539,7 +539,7 @@
         <v>63.720001</v>
       </c>
       <c r="F4" t="n">
-        <v>61.993492</v>
+        <v>61.9935</v>
       </c>
       <c r="G4" t="n">
         <v>1089200</v>
@@ -639,7 +639,7 @@
         <v>65.120003</v>
       </c>
       <c r="F8" t="n">
-        <v>63.35556</v>
+        <v>63.355553</v>
       </c>
       <c r="G8" t="n">
         <v>1321300</v>
@@ -664,7 +664,7 @@
         <v>66.269997</v>
       </c>
       <c r="F9" t="n">
-        <v>64.474403</v>
+        <v>64.474396</v>
       </c>
       <c r="G9" t="n">
         <v>1123100</v>
@@ -689,7 +689,7 @@
         <v>65.730003</v>
       </c>
       <c r="F10" t="n">
-        <v>63.949036</v>
+        <v>63.949039</v>
       </c>
       <c r="G10" t="n">
         <v>693600</v>
@@ -714,7 +714,7 @@
         <v>65.379997</v>
       </c>
       <c r="F11" t="n">
-        <v>63.608517</v>
+        <v>63.608509</v>
       </c>
       <c r="G11" t="n">
         <v>1378700</v>
@@ -739,7 +739,7 @@
         <v>66.860001</v>
       </c>
       <c r="F12" t="n">
-        <v>65.048424</v>
+        <v>65.048416</v>
       </c>
       <c r="G12" t="n">
         <v>2230300</v>
@@ -814,7 +814,7 @@
         <v>65.16999800000001</v>
       </c>
       <c r="F15" t="n">
-        <v>63.404213</v>
+        <v>63.404209</v>
       </c>
       <c r="G15" t="n">
         <v>2207900</v>
@@ -864,7 +864,7 @@
         <v>66.230003</v>
       </c>
       <c r="F17" t="n">
-        <v>64.43549299999999</v>
+        <v>64.435486</v>
       </c>
       <c r="G17" t="n">
         <v>649100</v>
@@ -889,7 +889,7 @@
         <v>65.93000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>64.14362300000001</v>
+        <v>64.14361599999999</v>
       </c>
       <c r="G18" t="n">
         <v>2658400</v>
@@ -914,7 +914,7 @@
         <v>65.75</v>
       </c>
       <c r="F19" t="n">
-        <v>63.968487</v>
+        <v>63.968498</v>
       </c>
       <c r="G19" t="n">
         <v>893500</v>
@@ -939,7 +939,7 @@
         <v>65.519997</v>
       </c>
       <c r="F20" t="n">
-        <v>63.744724</v>
+        <v>63.744728</v>
       </c>
       <c r="G20" t="n">
         <v>1643600</v>
@@ -964,7 +964,7 @@
         <v>66.019997</v>
       </c>
       <c r="F21" t="n">
-        <v>64.231171</v>
+        <v>64.23118599999999</v>
       </c>
       <c r="G21" t="n">
         <v>703300</v>
@@ -1014,7 +1014,7 @@
         <v>66.69000200000001</v>
       </c>
       <c r="F23" t="n">
-        <v>65.041641</v>
+        <v>65.04164900000001</v>
       </c>
       <c r="G23" t="n">
         <v>975000</v>
@@ -1064,7 +1064,7 @@
         <v>65.220001</v>
       </c>
       <c r="F25" t="n">
-        <v>63.607979</v>
+        <v>63.607967</v>
       </c>
       <c r="G25" t="n">
         <v>3308100</v>
@@ -1089,7 +1089,7 @@
         <v>64.730003</v>
       </c>
       <c r="F26" t="n">
-        <v>63.130096</v>
+        <v>63.130085</v>
       </c>
       <c r="G26" t="n">
         <v>898400</v>
@@ -1114,7 +1114,7 @@
         <v>65.010002</v>
       </c>
       <c r="F27" t="n">
-        <v>63.403168</v>
+        <v>63.403172</v>
       </c>
       <c r="G27" t="n">
         <v>1554100</v>
@@ -1139,7 +1139,7 @@
         <v>64.44000200000001</v>
       </c>
       <c r="F28" t="n">
-        <v>62.847256</v>
+        <v>62.847248</v>
       </c>
       <c r="G28" t="n">
         <v>1009500</v>
@@ -1164,7 +1164,7 @@
         <v>63.75</v>
       </c>
       <c r="F29" t="n">
-        <v>62.174305</v>
+        <v>62.174309</v>
       </c>
       <c r="G29" t="n">
         <v>998200</v>
@@ -1189,7 +1189,7 @@
         <v>64.279999</v>
       </c>
       <c r="F30" t="n">
-        <v>62.691196</v>
+        <v>62.691204</v>
       </c>
       <c r="G30" t="n">
         <v>767200</v>
@@ -1214,7 +1214,7 @@
         <v>64.099998</v>
       </c>
       <c r="F31" t="n">
-        <v>62.515652</v>
+        <v>62.515648</v>
       </c>
       <c r="G31" t="n">
         <v>757600</v>
@@ -1239,7 +1239,7 @@
         <v>63.580002</v>
       </c>
       <c r="F32" t="n">
-        <v>62.008518</v>
+        <v>62.008514</v>
       </c>
       <c r="G32" t="n">
         <v>744400</v>
@@ -1314,7 +1314,7 @@
         <v>62.040001</v>
       </c>
       <c r="F35" t="n">
-        <v>60.506573</v>
+        <v>60.506569</v>
       </c>
       <c r="G35" t="n">
         <v>886700</v>
@@ -1364,7 +1364,7 @@
         <v>63.060001</v>
       </c>
       <c r="F37" t="n">
-        <v>61.501358</v>
+        <v>61.501354</v>
       </c>
       <c r="G37" t="n">
         <v>1158400</v>
@@ -1414,7 +1414,7 @@
         <v>62.470001</v>
       </c>
       <c r="F39" t="n">
-        <v>60.925941</v>
+        <v>60.925945</v>
       </c>
       <c r="G39" t="n">
         <v>608700</v>
@@ -1439,7 +1439,7 @@
         <v>62.740002</v>
       </c>
       <c r="F40" t="n">
-        <v>61.18927</v>
+        <v>61.189274</v>
       </c>
       <c r="G40" t="n">
         <v>799500</v>
@@ -1464,7 +1464,7 @@
         <v>61.84</v>
       </c>
       <c r="F41" t="n">
-        <v>60.45702</v>
+        <v>60.457016</v>
       </c>
       <c r="G41" t="n">
         <v>1085400</v>
@@ -1489,7 +1489,7 @@
         <v>61.349998</v>
       </c>
       <c r="F42" t="n">
-        <v>59.977982</v>
+        <v>59.977978</v>
       </c>
       <c r="G42" t="n">
         <v>1611500</v>
@@ -1564,7 +1564,7 @@
         <v>62.599998</v>
       </c>
       <c r="F45" t="n">
-        <v>61.20002</v>
+        <v>61.200027</v>
       </c>
       <c r="G45" t="n">
         <v>748100</v>
@@ -1614,7 +1614,7 @@
         <v>62.869999</v>
       </c>
       <c r="F47" t="n">
-        <v>61.463989</v>
+        <v>61.463985</v>
       </c>
       <c r="G47" t="n">
         <v>1149500</v>
@@ -1639,7 +1639,7 @@
         <v>64.900002</v>
       </c>
       <c r="F48" t="n">
-        <v>63.448582</v>
+        <v>63.448586</v>
       </c>
       <c r="G48" t="n">
         <v>1384600</v>
@@ -1664,7 +1664,7 @@
         <v>65.239998</v>
       </c>
       <c r="F49" t="n">
-        <v>63.780987</v>
+        <v>63.780979</v>
       </c>
       <c r="G49" t="n">
         <v>1299600</v>
@@ -1689,7 +1689,7 @@
         <v>64.25</v>
       </c>
       <c r="F50" t="n">
-        <v>62.813118</v>
+        <v>62.813122</v>
       </c>
       <c r="G50" t="n">
         <v>1254200</v>
@@ -1714,7 +1714,7 @@
         <v>65.449997</v>
       </c>
       <c r="F51" t="n">
-        <v>63.986282</v>
+        <v>63.98629</v>
       </c>
       <c r="G51" t="n">
         <v>1164800</v>
@@ -1739,7 +1739,7 @@
         <v>64.949997</v>
       </c>
       <c r="F52" t="n">
-        <v>63.497467</v>
+        <v>63.497463</v>
       </c>
       <c r="G52" t="n">
         <v>1524900</v>
@@ -1764,7 +1764,7 @@
         <v>65.760002</v>
       </c>
       <c r="F53" t="n">
-        <v>64.289368</v>
+        <v>64.28935199999999</v>
       </c>
       <c r="G53" t="n">
         <v>1263900</v>
@@ -1789,7 +1789,7 @@
         <v>65.260002</v>
       </c>
       <c r="F54" t="n">
-        <v>63.800537</v>
+        <v>63.800533</v>
       </c>
       <c r="G54" t="n">
         <v>849300</v>
@@ -1839,7 +1839,7 @@
         <v>65.5</v>
       </c>
       <c r="F56" t="n">
-        <v>64.03516399999999</v>
+        <v>64.035172</v>
       </c>
       <c r="G56" t="n">
         <v>964200</v>
@@ -1864,7 +1864,7 @@
         <v>65.58000199999999</v>
       </c>
       <c r="F57" t="n">
-        <v>64.113388</v>
+        <v>64.11338000000001</v>
       </c>
       <c r="G57" t="n">
         <v>955900</v>
@@ -1889,7 +1889,7 @@
         <v>65.849998</v>
       </c>
       <c r="F58" t="n">
-        <v>64.377342</v>
+        <v>64.377335</v>
       </c>
       <c r="G58" t="n">
         <v>891700</v>
@@ -1914,7 +1914,7 @@
         <v>64.480003</v>
       </c>
       <c r="F59" t="n">
-        <v>63.037987</v>
+        <v>63.037979</v>
       </c>
       <c r="G59" t="n">
         <v>943800</v>
@@ -1939,7 +1939,7 @@
         <v>64.55999799999999</v>
       </c>
       <c r="F60" t="n">
-        <v>63.116199</v>
+        <v>63.116188</v>
       </c>
       <c r="G60" t="n">
         <v>597500</v>
@@ -1964,7 +1964,7 @@
         <v>64.389999</v>
       </c>
       <c r="F61" t="n">
-        <v>62.949989</v>
+        <v>62.949993</v>
       </c>
       <c r="G61" t="n">
         <v>642800</v>
@@ -2039,7 +2039,7 @@
         <v>65.699997</v>
       </c>
       <c r="F64" t="n">
-        <v>64.39484400000001</v>
+        <v>64.394852</v>
       </c>
       <c r="G64" t="n">
         <v>1061300</v>
@@ -2089,7 +2089,7 @@
         <v>66.720001</v>
       </c>
       <c r="F66" t="n">
-        <v>65.39458500000001</v>
+        <v>65.394592</v>
       </c>
       <c r="G66" t="n">
         <v>1142500</v>
@@ -2139,7 +2139,7 @@
         <v>65.910004</v>
       </c>
       <c r="F68" t="n">
-        <v>64.60069300000001</v>
+        <v>64.600685</v>
       </c>
       <c r="G68" t="n">
         <v>1016900</v>
@@ -2189,7 +2189,7 @@
         <v>65.949997</v>
       </c>
       <c r="F70" t="n">
-        <v>64.63988500000001</v>
+        <v>64.639877</v>
       </c>
       <c r="G70" t="n">
         <v>3967800</v>
@@ -2214,7 +2214,7 @@
         <v>65.480003</v>
       </c>
       <c r="F71" t="n">
-        <v>64.17923</v>
+        <v>64.179222</v>
       </c>
       <c r="G71" t="n">
         <v>869100</v>
@@ -2239,7 +2239,7 @@
         <v>64.889999</v>
       </c>
       <c r="F72" t="n">
-        <v>63.600952</v>
+        <v>63.600948</v>
       </c>
       <c r="G72" t="n">
         <v>722600</v>
@@ -2264,7 +2264,7 @@
         <v>64.160004</v>
       </c>
       <c r="F73" t="n">
-        <v>62.885448</v>
+        <v>62.885445</v>
       </c>
       <c r="G73" t="n">
         <v>1434100</v>
@@ -2289,7 +2289,7 @@
         <v>64.410004</v>
       </c>
       <c r="F74" t="n">
-        <v>63.130489</v>
+        <v>63.130486</v>
       </c>
       <c r="G74" t="n">
         <v>1028100</v>
@@ -2314,7 +2314,7 @@
         <v>64.31999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>63.042263</v>
+        <v>63.042267</v>
       </c>
       <c r="G75" t="n">
         <v>744800</v>
@@ -2364,7 +2364,7 @@
         <v>64.470001</v>
       </c>
       <c r="F77" t="n">
-        <v>63.189285</v>
+        <v>63.189289</v>
       </c>
       <c r="G77" t="n">
         <v>763600</v>
@@ -2464,7 +2464,7 @@
         <v>64.75</v>
       </c>
       <c r="F81" t="n">
-        <v>63.463722</v>
+        <v>63.46373</v>
       </c>
       <c r="G81" t="n">
         <v>636500</v>
@@ -2539,7 +2539,7 @@
         <v>65.269997</v>
       </c>
       <c r="F84" t="n">
-        <v>64.13157699999999</v>
+        <v>64.131569</v>
       </c>
       <c r="G84" t="n">
         <v>1335300</v>
@@ -2564,7 +2564,7 @@
         <v>65.68000000000001</v>
       </c>
       <c r="F85" t="n">
-        <v>64.534424</v>
+        <v>64.534431</v>
       </c>
       <c r="G85" t="n">
         <v>1228000</v>
@@ -2589,7 +2589,7 @@
         <v>65.160004</v>
       </c>
       <c r="F86" t="n">
-        <v>64.02349100000001</v>
+        <v>64.023499</v>
       </c>
       <c r="G86" t="n">
         <v>1471100</v>
@@ -2614,7 +2614,7 @@
         <v>64.849998</v>
       </c>
       <c r="F87" t="n">
-        <v>63.718899</v>
+        <v>63.718891</v>
       </c>
       <c r="G87" t="n">
         <v>3821600</v>
@@ -2664,7 +2664,7 @@
         <v>63.880001</v>
       </c>
       <c r="F89" t="n">
-        <v>62.765823</v>
+        <v>62.76582</v>
       </c>
       <c r="G89" t="n">
         <v>1120500</v>
@@ -2739,7 +2739,7 @@
         <v>64.589996</v>
       </c>
       <c r="F92" t="n">
-        <v>63.463432</v>
+        <v>63.463428</v>
       </c>
       <c r="G92" t="n">
         <v>819600</v>
@@ -2814,7 +2814,7 @@
         <v>63.610001</v>
       </c>
       <c r="F95" t="n">
-        <v>62.50053</v>
+        <v>62.500534</v>
       </c>
       <c r="G95" t="n">
         <v>842900</v>
@@ -2864,7 +2864,7 @@
         <v>62.689999</v>
       </c>
       <c r="F97" t="n">
-        <v>61.596573</v>
+        <v>61.596577</v>
       </c>
       <c r="G97" t="n">
         <v>1291100</v>
@@ -2914,7 +2914,7 @@
         <v>62.59</v>
       </c>
       <c r="F99" t="n">
-        <v>61.498318</v>
+        <v>61.498322</v>
       </c>
       <c r="G99" t="n">
         <v>1003600</v>
@@ -3039,7 +3039,7 @@
         <v>63.689999</v>
       </c>
       <c r="F104" t="n">
-        <v>62.579136</v>
+        <v>62.579132</v>
       </c>
       <c r="G104" t="n">
         <v>1532100</v>
@@ -3064,7 +3064,7 @@
         <v>63.75</v>
       </c>
       <c r="F105" t="n">
-        <v>62.804737</v>
+        <v>62.804733</v>
       </c>
       <c r="G105" t="n">
         <v>975800</v>
@@ -3089,7 +3089,7 @@
         <v>63.150002</v>
       </c>
       <c r="F106" t="n">
-        <v>62.213638</v>
+        <v>62.213634</v>
       </c>
       <c r="G106" t="n">
         <v>1046100</v>
@@ -3139,7 +3139,7 @@
         <v>63.330002</v>
       </c>
       <c r="F108" t="n">
-        <v>62.390965</v>
+        <v>62.390968</v>
       </c>
       <c r="G108" t="n">
         <v>862300</v>
@@ -3164,7 +3164,7 @@
         <v>62.43</v>
       </c>
       <c r="F109" t="n">
-        <v>61.504311</v>
+        <v>61.504307</v>
       </c>
       <c r="G109" t="n">
         <v>1401500</v>
@@ -3189,7 +3189,7 @@
         <v>63.150002</v>
       </c>
       <c r="F110" t="n">
-        <v>62.213638</v>
+        <v>62.213634</v>
       </c>
       <c r="G110" t="n">
         <v>915600</v>
@@ -3214,7 +3214,7 @@
         <v>63.099998</v>
       </c>
       <c r="F111" t="n">
-        <v>62.164379</v>
+        <v>62.164375</v>
       </c>
       <c r="G111" t="n">
         <v>753400</v>
@@ -3239,7 +3239,7 @@
         <v>63.220001</v>
       </c>
       <c r="F112" t="n">
-        <v>62.282597</v>
+        <v>62.2826</v>
       </c>
       <c r="G112" t="n">
         <v>1210000</v>
@@ -3264,7 +3264,7 @@
         <v>62.619999</v>
       </c>
       <c r="F113" t="n">
-        <v>61.69149</v>
+        <v>61.691494</v>
       </c>
       <c r="G113" t="n">
         <v>1677800</v>
@@ -3289,7 +3289,7 @@
         <v>62.990002</v>
       </c>
       <c r="F114" t="n">
-        <v>62.056011</v>
+        <v>62.056015</v>
       </c>
       <c r="G114" t="n">
         <v>2601500</v>
@@ -3314,7 +3314,7 @@
         <v>63.610001</v>
       </c>
       <c r="F115" t="n">
-        <v>62.666813</v>
+        <v>62.666817</v>
       </c>
       <c r="G115" t="n">
         <v>2237300</v>
@@ -3364,7 +3364,7 @@
         <v>63.77</v>
       </c>
       <c r="F117" t="n">
-        <v>62.824448</v>
+        <v>62.82444</v>
       </c>
       <c r="G117" t="n">
         <v>1103600</v>
@@ -3414,7 +3414,7 @@
         <v>63.240002</v>
       </c>
       <c r="F119" t="n">
-        <v>62.302303</v>
+        <v>62.302299</v>
       </c>
       <c r="G119" t="n">
         <v>856300</v>
@@ -3439,7 +3439,7 @@
         <v>63.77</v>
       </c>
       <c r="F120" t="n">
-        <v>62.824448</v>
+        <v>62.82444</v>
       </c>
       <c r="G120" t="n">
         <v>1044200</v>
@@ -3564,7 +3564,7 @@
         <v>63.529999</v>
       </c>
       <c r="F125" t="n">
-        <v>62.588001</v>
+        <v>62.587994</v>
       </c>
       <c r="G125" t="n">
         <v>2320500</v>
@@ -3614,7 +3614,7 @@
         <v>62.439999</v>
       </c>
       <c r="F127" t="n">
-        <v>61.674343</v>
+        <v>61.674339</v>
       </c>
       <c r="G127" t="n">
         <v>1878800</v>
@@ -3639,7 +3639,7 @@
         <v>61.580002</v>
       </c>
       <c r="F128" t="n">
-        <v>60.82489</v>
+        <v>60.824886</v>
       </c>
       <c r="G128" t="n">
         <v>4854600</v>
@@ -3764,7 +3764,7 @@
         <v>63</v>
       </c>
       <c r="F133" t="n">
-        <v>62.227482</v>
+        <v>62.227478</v>
       </c>
       <c r="G133" t="n">
         <v>1489500</v>
@@ -3789,7 +3789,7 @@
         <v>62.689999</v>
       </c>
       <c r="F134" t="n">
-        <v>61.92128</v>
+        <v>61.921276</v>
       </c>
       <c r="G134" t="n">
         <v>1900200</v>
@@ -3814,7 +3814,7 @@
         <v>62.720001</v>
       </c>
       <c r="F135" t="n">
-        <v>61.950916</v>
+        <v>61.950912</v>
       </c>
       <c r="G135" t="n">
         <v>1663400</v>
@@ -3839,7 +3839,7 @@
         <v>62.98</v>
       </c>
       <c r="F136" t="n">
-        <v>62.207722</v>
+        <v>62.207726</v>
       </c>
       <c r="G136" t="n">
         <v>1397800</v>
@@ -3889,7 +3889,7 @@
         <v>62.860001</v>
       </c>
       <c r="F138" t="n">
-        <v>62.089195</v>
+        <v>62.089191</v>
       </c>
       <c r="G138" t="n">
         <v>3741300</v>
@@ -3964,7 +3964,7 @@
         <v>62.549999</v>
       </c>
       <c r="F141" t="n">
-        <v>61.782997</v>
+        <v>61.782993</v>
       </c>
       <c r="G141" t="n">
         <v>1267200</v>
@@ -4014,7 +4014,7 @@
         <v>61.5</v>
       </c>
       <c r="F143" t="n">
-        <v>60.745872</v>
+        <v>60.745876</v>
       </c>
       <c r="G143" t="n">
         <v>1996700</v>
@@ -4139,7 +4139,7 @@
         <v>59.009998</v>
       </c>
       <c r="F148" t="n">
-        <v>58.443954</v>
+        <v>58.443951</v>
       </c>
       <c r="G148" t="n">
         <v>3247300</v>
@@ -4189,7 +4189,7 @@
         <v>59.5</v>
       </c>
       <c r="F150" t="n">
-        <v>58.929256</v>
+        <v>58.929253</v>
       </c>
       <c r="G150" t="n">
         <v>1909300</v>
@@ -4239,7 +4239,7 @@
         <v>60.439999</v>
       </c>
       <c r="F152" t="n">
-        <v>59.860237</v>
+        <v>59.860233</v>
       </c>
       <c r="G152" t="n">
         <v>1267200</v>
@@ -4339,7 +4339,7 @@
         <v>58.93</v>
       </c>
       <c r="F156" t="n">
-        <v>58.364719</v>
+        <v>58.364723</v>
       </c>
       <c r="G156" t="n">
         <v>1309500</v>
@@ -4364,7 +4364,7 @@
         <v>58.5</v>
       </c>
       <c r="F157" t="n">
-        <v>57.938847</v>
+        <v>57.938843</v>
       </c>
       <c r="G157" t="n">
         <v>1981800</v>
@@ -4414,7 +4414,7 @@
         <v>58.450001</v>
       </c>
       <c r="F159" t="n">
-        <v>57.889324</v>
+        <v>57.889328</v>
       </c>
       <c r="G159" t="n">
         <v>1072200</v>
@@ -4514,7 +4514,7 @@
         <v>59.060001</v>
       </c>
       <c r="F163" t="n">
-        <v>58.493477</v>
+        <v>58.493473</v>
       </c>
       <c r="G163" t="n">
         <v>1055600</v>
@@ -4614,7 +4614,7 @@
         <v>59.82</v>
       </c>
       <c r="F167" t="n">
-        <v>59.246181</v>
+        <v>59.246185</v>
       </c>
       <c r="G167" t="n">
         <v>1870900</v>
@@ -5893,6 +5893,281 @@
       </c>
       <c r="G218" t="n">
         <v>1756400</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2023-11-13</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>54.689999</v>
+      </c>
+      <c r="C219" t="n">
+        <v>55.099998</v>
+      </c>
+      <c r="D219" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="E219" t="n">
+        <v>55.029999</v>
+      </c>
+      <c r="F219" t="n">
+        <v>55.029999</v>
+      </c>
+      <c r="G219" t="n">
+        <v>2303900</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2023-11-14</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>56.32</v>
+      </c>
+      <c r="C220" t="n">
+        <v>56.41</v>
+      </c>
+      <c r="D220" t="n">
+        <v>55.91</v>
+      </c>
+      <c r="E220" t="n">
+        <v>56.209999</v>
+      </c>
+      <c r="F220" t="n">
+        <v>56.209999</v>
+      </c>
+      <c r="G220" t="n">
+        <v>3357000</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2023-11-15</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>55.77</v>
+      </c>
+      <c r="C221" t="n">
+        <v>55.799999</v>
+      </c>
+      <c r="D221" t="n">
+        <v>55.349998</v>
+      </c>
+      <c r="E221" t="n">
+        <v>55.470001</v>
+      </c>
+      <c r="F221" t="n">
+        <v>55.470001</v>
+      </c>
+      <c r="G221" t="n">
+        <v>1817000</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2023-11-16</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>55.959999</v>
+      </c>
+      <c r="C222" t="n">
+        <v>56.310001</v>
+      </c>
+      <c r="D222" t="n">
+        <v>55.91</v>
+      </c>
+      <c r="E222" t="n">
+        <v>56.110001</v>
+      </c>
+      <c r="F222" t="n">
+        <v>56.110001</v>
+      </c>
+      <c r="G222" t="n">
+        <v>9380900</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2023-11-17</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>56.389999</v>
+      </c>
+      <c r="C223" t="n">
+        <v>56.540001</v>
+      </c>
+      <c r="D223" t="n">
+        <v>56.09</v>
+      </c>
+      <c r="E223" t="n">
+        <v>56.34</v>
+      </c>
+      <c r="F223" t="n">
+        <v>56.34</v>
+      </c>
+      <c r="G223" t="n">
+        <v>2183200</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2023-11-20</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>56.09</v>
+      </c>
+      <c r="C224" t="n">
+        <v>56.689999</v>
+      </c>
+      <c r="D224" t="n">
+        <v>56.09</v>
+      </c>
+      <c r="E224" t="n">
+        <v>56.619999</v>
+      </c>
+      <c r="F224" t="n">
+        <v>56.619999</v>
+      </c>
+      <c r="G224" t="n">
+        <v>2311800</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2023-11-21</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>56.610001</v>
+      </c>
+      <c r="C225" t="n">
+        <v>56.77</v>
+      </c>
+      <c r="D225" t="n">
+        <v>56.259998</v>
+      </c>
+      <c r="E225" t="n">
+        <v>56.610001</v>
+      </c>
+      <c r="F225" t="n">
+        <v>56.610001</v>
+      </c>
+      <c r="G225" t="n">
+        <v>2316600</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2023-11-22</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>56.939999</v>
+      </c>
+      <c r="C226" t="n">
+        <v>57.040001</v>
+      </c>
+      <c r="D226" t="n">
+        <v>56.509998</v>
+      </c>
+      <c r="E226" t="n">
+        <v>56.759998</v>
+      </c>
+      <c r="F226" t="n">
+        <v>56.759998</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1571200</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2023-11-24</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>56.34</v>
+      </c>
+      <c r="C227" t="n">
+        <v>56.400002</v>
+      </c>
+      <c r="D227" t="n">
+        <v>56.150002</v>
+      </c>
+      <c r="E227" t="n">
+        <v>56.150002</v>
+      </c>
+      <c r="F227" t="n">
+        <v>56.150002</v>
+      </c>
+      <c r="G227" t="n">
+        <v>776500</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2023-11-27</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>56.470001</v>
+      </c>
+      <c r="C228" t="n">
+        <v>57.02</v>
+      </c>
+      <c r="D228" t="n">
+        <v>56.389999</v>
+      </c>
+      <c r="E228" t="n">
+        <v>56.990002</v>
+      </c>
+      <c r="F228" t="n">
+        <v>56.990002</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1885300</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2023-11-28</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>56.470001</v>
+      </c>
+      <c r="C229" t="n">
+        <v>56.804001</v>
+      </c>
+      <c r="D229" t="n">
+        <v>56.759998</v>
+      </c>
+      <c r="E229" t="n">
+        <v>56.77</v>
+      </c>
+      <c r="F229" t="n">
+        <v>56.77</v>
+      </c>
+      <c r="G229" t="n">
+        <v>27354</v>
       </c>
     </row>
   </sheetData>
